--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A81ECE1-1654-4AD8-BE47-E7D638A89AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3595C0-76A7-4235-A6DB-9EC0056C5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>SheetNameOfLetter</t>
   </si>
   <si>
-    <t>HESAP TEMP</t>
-  </si>
-  <si>
     <t>ANA YENİ</t>
   </si>
   <si>
@@ -217,6 +214,15 @@
   </si>
   <si>
     <t>ATTENTION</t>
+  </si>
+  <si>
+    <t>HESAP</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>2 YE YAPILDI DİĞERLERİNE DE SÜRE BOŞ İSE FORMÜL DEĞİŞİKLİĞİNİ İPTAL YAP</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,268 +595,265 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>36</v>
+      <c r="C27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -858,13 +861,24 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
+      <c r="C37" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3595C0-76A7-4235-A6DB-9EC0056C5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA6709-008C-40A6-B192-580561C31E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -652,7 +652,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -663,7 +663,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -674,7 +674,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -684,9 +684,7 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2">
-        <v>14</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -695,9 +693,7 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -706,9 +702,7 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>23</v>
       </c>
@@ -717,9 +711,7 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3">
-        <v>12</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>24</v>
       </c>

--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FA6709-008C-40A6-B192-580561C31E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603CEE7-8964-46A6-99EA-20721F7B27AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -652,7 +652,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -663,7 +663,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -674,7 +674,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -684,7 +684,9 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>27</v>
+      </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
@@ -693,7 +695,9 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>27</v>
+      </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -702,7 +706,9 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>27</v>
+      </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
@@ -711,7 +717,9 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>27</v>
+      </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>

--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603CEE7-8964-46A6-99EA-20721F7B27AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503E2AD-09E7-4E63-9BFC-852444B4F75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -652,7 +652,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -663,7 +663,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -674,7 +674,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -696,7 +696,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -707,7 +707,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -718,7 +718,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>

--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503E2AD-09E7-4E63-9BFC-852444B4F75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738D463-BE23-4212-BC0A-11DE3432CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>2 YE YAPILDI DİĞERLERİNE DE SÜRE BOŞ İSE FORMÜL DEĞİŞİKLİĞİNİ İPTAL YAP</t>
+  </si>
+  <si>
+    <t>YAPILDI.</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +257,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,10 +294,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +586,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,26 +626,29 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -641,7 +664,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -652,7 +675,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -663,7 +686,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -674,7 +697,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -685,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -696,7 +719,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -707,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -718,7 +741,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -732,7 +755,7 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">

--- a/Config_and_Inputs/ConfigFile.xlsx
+++ b/Config_and_Inputs/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\can.sarihan\Documents\UiPath\Taslama_Surec_Otomasyonu\Config_and_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738D463-BE23-4212-BC0A-11DE3432CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A1C8C-E8F8-41F2-94B0-05C3BED7A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -675,7 +675,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -686,7 +686,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -697,7 +697,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -708,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -719,7 +719,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -730,7 +730,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -741,7 +741,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
